--- a/pi/zad 7/mapowanie funkcjonalnonsci na elementy.xlsx
+++ b/pi/zad 7/mapowanie funkcjonalnonsci na elementy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="84">
   <si>
     <t>Elementy</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Element</t>
   </si>
   <si>
-    <t>Opis</t>
-  </si>
-  <si>
     <t>Tryb</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Warstwa</t>
   </si>
   <si>
-    <t>Podmień składnik w kotle</t>
-  </si>
-  <si>
     <t>Jak długo można jeszcze wędrować</t>
   </si>
   <si>
@@ -198,6 +192,88 @@
   </si>
   <si>
     <t>Dostępne questy</t>
+  </si>
+  <si>
+    <t>Kanały przekazywania informacji</t>
+  </si>
+  <si>
+    <t>napis</t>
+  </si>
+  <si>
+    <t>napisy, progress bar</t>
+  </si>
+  <si>
+    <t>Grafika budynków</t>
+  </si>
+  <si>
+    <t>Grafika składników, podświetlenie</t>
+  </si>
+  <si>
+    <t>napis, jak końcówka to podświetlenie</t>
+  </si>
+  <si>
+    <t>ikonki z liczbą</t>
+  </si>
+  <si>
+    <t>dźwięk, particle, animacja</t>
+  </si>
+  <si>
+    <t>ikonka, liczba</t>
+  </si>
+  <si>
+    <t>liczba</t>
+  </si>
+  <si>
+    <t>ikonka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wykrzykniki nad postaciami i budynkiem karczmy
+</t>
+  </si>
+  <si>
+    <t>Podświetlone postaci</t>
+  </si>
+  <si>
+    <t>tekst</t>
+  </si>
+  <si>
+    <t>liczba przy ikonkach składników</t>
+  </si>
+  <si>
+    <t>ikonki</t>
+  </si>
+  <si>
+    <t>tekst i ikonki</t>
+  </si>
+  <si>
+    <t>ikonki składników, receptur i tekst</t>
+  </si>
+  <si>
+    <t>tekst, awatar</t>
+  </si>
+  <si>
+    <t>Quest completed</t>
+  </si>
+  <si>
+    <t>animacja, ikonka, tekst</t>
+  </si>
+  <si>
+    <t>double click przenosi do dziennika</t>
+  </si>
+  <si>
+    <t>double click przenosi składnik do kotła</t>
+  </si>
+  <si>
+    <t>doublce click usuwa</t>
+  </si>
+  <si>
+    <t>Usuń składnik z kotła</t>
+  </si>
+  <si>
+    <t>hold na składniku przechodzi od dziennika</t>
+  </si>
+  <si>
+    <t>Wsparcie dla gracza zaawansowanego</t>
   </si>
 </sst>
 </file>
@@ -233,8 +309,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,15 +700,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -634,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,12 +732,12 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -670,13 +752,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,60 +769,65 @@
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -749,18 +836,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -768,19 +855,22 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -788,59 +878,65 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -849,38 +945,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -889,18 +985,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -908,19 +1004,22 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -928,19 +1027,22 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -948,19 +1050,22 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -968,19 +1073,22 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -989,18 +1097,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1008,19 +1116,22 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1028,19 +1139,22 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1048,19 +1162,22 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -1069,18 +1186,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -1089,38 +1206,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="21" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1128,39 +1248,45 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -1168,39 +1294,45 @@
       <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -1209,118 +1341,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1328,19 +1478,22 @@
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1348,19 +1501,22 @@
       <c r="F33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1368,19 +1524,22 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1388,36 +1547,62 @@
       <c r="F35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
       </c>
       <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D37">
       <formula1>TrybyList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C37">
       <formula1>FunkcjonalnościList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E37">
       <formula1>ElementsList</formula1>
     </dataValidation>
   </dataValidations>
